--- a/presidentes.xlsx
+++ b/presidentes.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485"/>
   </bookViews>
   <sheets>
-    <sheet name="Geral" sheetId="2" r:id="rId1"/>
-    <sheet name="H1" sheetId="1" r:id="rId2"/>
+    <sheet name="H1" sheetId="1" r:id="rId1"/>
+    <sheet name="Geral" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -666,9 +666,1361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B208"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:B68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1889</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1890</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1891</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1892</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1893</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1894</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1895</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1896</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1897</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1898</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1899</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1901</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1902</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1903</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1904</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1905</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1906</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1907</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1908</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1909</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1910</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1911</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1912</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1913</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1914</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1915</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1916</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1917</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1918</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1919</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1920</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1921</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1922</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1923</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1924</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1925</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1926</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1927</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1928</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1929</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1930</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1931</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1932</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1933</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1934</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1935</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1936</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1937</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>1938</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1939</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1940</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1941</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1942</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1943</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1944</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1945</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1946</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1947</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1948</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1949</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1951</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>1952</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1953</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>1954</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1955</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>1956</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>1957</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>1958</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>1959</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1960</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1961</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>1962</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1963</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1964</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>1965</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>1966</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>1969</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>1970</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>1971</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>1973</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>1974</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>1975</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>1978</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>1979</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>1981</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>1983</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>1984</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>1985</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>1987</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>1989</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>1993</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>1998</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -2528,1358 +3880,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B208"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1889</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1890</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1891</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1892</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1893</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1894</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1895</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1896</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1897</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1898</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1899</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1900</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1901</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1902</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1903</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1904</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1905</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1906</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1907</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1908</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>1909</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>1910</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>1911</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>1912</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>1913</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>1914</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1915</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>1916</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>1917</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>1918</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>1919</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>1920</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>1921</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>1922</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>1923</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>1924</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>1925</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>1926</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>1927</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>1928</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>1929</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>1930</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>1931</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>1932</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>1933</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>1934</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>1935</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>1936</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>1937</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>1938</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>1939</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>1940</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>1941</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>1942</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>1943</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>1944</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>1946</v>
-      </c>
-      <c r="B59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>1947</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>1948</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>1949</v>
-      </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>1950</v>
-      </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>1951</v>
-      </c>
-      <c r="B64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>1952</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>1953</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>1954</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>1955</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>1956</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>1957</v>
-      </c>
-      <c r="B70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>1958</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>1959</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>1960</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>1961</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>1962</v>
-      </c>
-      <c r="B75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>1963</v>
-      </c>
-      <c r="B76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>1964</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>1965</v>
-      </c>
-      <c r="B78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>1966</v>
-      </c>
-      <c r="B79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>1967</v>
-      </c>
-      <c r="B80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>1968</v>
-      </c>
-      <c r="B81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>1969</v>
-      </c>
-      <c r="B82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>1970</v>
-      </c>
-      <c r="B83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>1971</v>
-      </c>
-      <c r="B84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>1972</v>
-      </c>
-      <c r="B85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>1973</v>
-      </c>
-      <c r="B86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>1974</v>
-      </c>
-      <c r="B87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>1975</v>
-      </c>
-      <c r="B88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>1976</v>
-      </c>
-      <c r="B89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>1977</v>
-      </c>
-      <c r="B90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>1978</v>
-      </c>
-      <c r="B91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>1979</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>1980</v>
-      </c>
-      <c r="B93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>1981</v>
-      </c>
-      <c r="B94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>1982</v>
-      </c>
-      <c r="B95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>1983</v>
-      </c>
-      <c r="B96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>1984</v>
-      </c>
-      <c r="B97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>1985</v>
-      </c>
-      <c r="B98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>1986</v>
-      </c>
-      <c r="B99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>1987</v>
-      </c>
-      <c r="B100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>1988</v>
-      </c>
-      <c r="B101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>1989</v>
-      </c>
-      <c r="B102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>1990</v>
-      </c>
-      <c r="B103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>1991</v>
-      </c>
-      <c r="B104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>1992</v>
-      </c>
-      <c r="B105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>1993</v>
-      </c>
-      <c r="B106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>1994</v>
-      </c>
-      <c r="B107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>1995</v>
-      </c>
-      <c r="B108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>1996</v>
-      </c>
-      <c r="B109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>1997</v>
-      </c>
-      <c r="B110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>1998</v>
-      </c>
-      <c r="B111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>1999</v>
-      </c>
-      <c r="B112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B116" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B117" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B124" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
